--- a/Hardware/bom.xlsx
+++ b/Hardware/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\FYP\Wheel_Robot\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D023C8-4FB4-43CC-951D-981A1DCDD73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B79CD43-C3B8-4996-82F3-E1139C0332A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>47uF/50V C1812</t>
   </si>
@@ -55,6 +55,22 @@
   </si>
   <si>
     <t>焊接式_TFT_1.14_135x240_13pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT30U-M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H7, H8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR30-M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -422,7 +438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -431,7 +447,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Hardware/bom.xlsx
+++ b/Hardware/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\FYP\Wheel_Robot\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B79CD43-C3B8-4996-82F3-E1139C0332A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD57ABA-A80C-4B36-B92B-895CCCE5B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>47uF/50V C1812</t>
   </si>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>MR30-M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块和芯片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,7 +421,8 @@
     <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -463,6 +472,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware/bom.xlsx
+++ b/Hardware/bom.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D34746-8262-46FF-BE7A-7BC8C3167A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_ODrive2_1_ODrive2_1_2025-02" state="visible" r:id="rId4"/>
+    <sheet name="BOM_ODrive2_1_ODrive2_1_2025-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="237">
   <si>
     <t>No.</t>
   </si>
@@ -250,467 +254,559 @@
     <t>22</t>
   </si>
   <si>
+    <t>H1,H2</t>
+  </si>
+  <si>
+    <t>HDR-TH_4P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>XT30U-M</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>MR30-M</t>
+  </si>
+  <si>
+    <t>H5,H6</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>120uH</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>IND-SMD_L6.0-W6.0</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>22uH</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>YLED0603B</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED0603_BLUE</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2.54-2*20P</t>
+  </si>
+  <si>
+    <t>P1,P2</t>
+  </si>
+  <si>
+    <t>MY_HDR-TH_40P-P2.54-V-M-R2-C20-S2.54</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>KRC116S-RTK/P</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.6-P1.90-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>KNY3406C</t>
+  </si>
+  <si>
+    <t>Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13</t>
+  </si>
+  <si>
+    <t>PDFNWB-8L_L6.0-W5.0-P1.27-BL-EP_CON</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3.3kΩ</t>
+  </si>
+  <si>
+    <t>R1,R2,R9,R10,R11,R13,R15,R18,R24,R25,R26,R38,R45,R46,R47,R57</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R3,R4,R14,R28,R44</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>R5,R7</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>22Ω</t>
+  </si>
+  <si>
+    <t>R6,R8,R39,R40,R52,R56</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>120Ω</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>4.7kΩ</t>
+  </si>
+  <si>
+    <t>R16,R17</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>3.3Ω</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>10Ω</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>0Ω</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>562kΩ</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>140kΩ</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>133kΩ</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2.2Ω</t>
+  </si>
+  <si>
+    <t>R29,R30,R31,R33,R34,R35,R49,R50,R51,R53,R54,R55</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>18kΩ</t>
+  </si>
+  <si>
+    <t>R32,R48</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>0.5mΩ</t>
+  </si>
+  <si>
+    <t>R36,R37,R58,R59</t>
+  </si>
+  <si>
+    <t>R2512</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>365kΩ</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>52.3kΩ</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>86.6kΩ</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>100Ω</t>
+  </si>
+  <si>
+    <t>RN1,RN2</t>
+  </si>
+  <si>
+    <t>RES-ARRAY-SMD_0603-8P-L3.2-W1.6-BL</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>NCP18XH103F03RB</t>
+  </si>
+  <si>
+    <t>RT1,RT2</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>TS-1088R-02026</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW-SMD_L3.9-W3.0-P4.45</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>TM-4175-B-B</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW-SMD_TM-4175-B-B</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>焊接式_TFT_1.14_135x240_13pin</t>
+  </si>
+  <si>
+    <t>TFT1</t>
+  </si>
+  <si>
+    <t>焊接式_TFT_1.14_135X240_13PIN</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>CH340K</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ESOP-10_L4.9-W3.9-P1.00-LS6.2-BL-EP</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>SN65HVD232DR</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOIC-8_L5.0-W4.0-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>W25Q32JVSSIQ</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOIC-8_L5.3-W5.3-P1.27-LS8.0-BL</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>QFN-24_L4.0-W4.0-P0.50-BL-EP2.7</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>RT9193-33GB</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>LP5907MFX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>ZX-XH2.54-14PWT</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>CONN-SMD_14P-P2.50_KH-A2504-14AWB</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>DRV8301DCAR</t>
+  </si>
+  <si>
+    <t>U8,U9</t>
+  </si>
+  <si>
+    <t>HTSSOP-56_L14.0-W6.0-P0.50-LS8.0-BL</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>STM32F405VGT6</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>LQFP-100_L14.0-W14.0-P0.50-LS16.0-BL</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t>USBC1</t>
+  </si>
+  <si>
+    <t>USB-C_SMD-TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>OSC-SMD_3P-L3.2-W1.3-P1.20</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立创商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTC143ZCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PZ254V-11-04P</t>
-  </si>
-  <si>
-    <t>H1,H2</t>
-  </si>
-  <si>
-    <t>HDR-TH_4P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>XT30U-M</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>MR30-M</t>
-  </si>
-  <si>
-    <t>H5,H6</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>120uH</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>IND-SMD_L6.0-W6.0</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>22uH</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>YLED0603B</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>LED0603_BLUE</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2.54-2*20P</t>
-  </si>
-  <si>
-    <t>P1,P2</t>
-  </si>
-  <si>
-    <t>MY_HDR-TH_40P-P2.54-V-M-R2-C20-S2.54</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>KRC116S-RTK/P</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SOT-23-3_L2.9-W1.6-P1.90-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>KNY3406C</t>
-  </si>
-  <si>
-    <t>Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13</t>
-  </si>
-  <si>
-    <t>PDFNWB-8L_L6.0-W5.0-P1.27-BL-EP_CON</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>3.3kΩ</t>
-  </si>
-  <si>
-    <t>R1,R2,R9,R10,R11,R13,R15,R18,R24,R25,R26,R38,R45,R46,R47,R57</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>R3,R4,R14,R28,R44</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>R5,R7</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>22Ω</t>
-  </si>
-  <si>
-    <t>R6,R8,R39,R40,R52,R56</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>120Ω</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>4.7kΩ</t>
-  </si>
-  <si>
-    <t>R16,R17</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>3.3Ω</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>10Ω</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>0Ω</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>562kΩ</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>140kΩ</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>133kΩ</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2.2Ω</t>
-  </si>
-  <si>
-    <t>R29,R30,R31,R33,R34,R35,R49,R50,R51,R53,R54,R55</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>18kΩ</t>
-  </si>
-  <si>
-    <t>R32,R48</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>0.5mΩ</t>
-  </si>
-  <si>
-    <t>R36,R37,R58,R59</t>
-  </si>
-  <si>
-    <t>R2512</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>365kΩ</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>52.3kΩ</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>86.6kΩ</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>100Ω</t>
-  </si>
-  <si>
-    <t>RN1,RN2</t>
-  </si>
-  <si>
-    <t>RES-ARRAY-SMD_0603-8P-L3.2-W1.6-BL</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>NCP18XH103F03RB</t>
-  </si>
-  <si>
-    <t>RT1,RT2</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>TS-1088R-02026</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SW-SMD_L3.9-W3.0-P4.45</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>TM-4175-B-B</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>SW-SMD_TM-4175-B-B</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>焊接式_TFT_1.14_135x240_13pin</t>
-  </si>
-  <si>
-    <t>TFT1</t>
-  </si>
-  <si>
-    <t>焊接式_TFT_1.14_135X240_13PIN</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>CH340K</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ESOP-10_L4.9-W3.9-P1.00-LS6.2-BL-EP</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>SN65HVD232DR</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SOIC-8_L5.0-W4.0-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>W25Q32JVSSIQ</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOIC-8_L5.3-W5.3-P1.27-LS8.0-BL</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>MPU-6050</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>QFN-24_L4.0-W4.0-P0.50-BL-EP2.7</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>RT9193-33GB</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>LP5907MFX-3.3/NOPB</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>ZX-XH2.54-14PWT</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>CONN-SMD_14P-P2.50_KH-A2504-14AWB</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>DRV8301DCAR</t>
-  </si>
-  <si>
-    <t>U8,U9</t>
-  </si>
-  <si>
-    <t>HTSSOP-56_L14.0-W6.0-P0.50-LS8.0-BL</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>STM32F405VGT6</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>LQFP-100_L14.0-W14.0-P0.50-LS16.0-BL</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>TYPE-C-31-M-12</t>
-  </si>
-  <si>
-    <t>USBC1</t>
-  </si>
-  <si>
-    <t>USB-C_SMD-TYPE-C-31-M-12</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>8MHz</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>OSC-SMD_3P-L3.2-W1.3-P1.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMN6080NF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -730,14 +826,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1073,17 +1183,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,8 +1221,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1122,8 +1244,11 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1142,8 +1267,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1162,8 +1290,11 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1182,8 +1313,11 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1336,11 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1222,8 +1359,11 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1242,8 +1382,11 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1263,7 +1406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1282,8 +1425,11 @@
       <c r="F10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1302,8 +1448,11 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1322,8 +1471,11 @@
       <c r="F12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1342,8 +1494,11 @@
       <c r="F13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1362,8 +1517,11 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1382,8 +1540,11 @@
       <c r="F15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1402,8 +1563,11 @@
       <c r="F16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1422,8 +1586,11 @@
       <c r="F17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1442,8 +1609,11 @@
       <c r="F18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1462,8 +1632,11 @@
       <c r="F19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1482,8 +1655,11 @@
       <c r="F20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1502,8 +1678,11 @@
       <c r="F21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1522,8 +1701,11 @@
       <c r="F22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -1531,866 +1713,1009 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
       </c>
       <c r="F23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>92</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>94</v>
       </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>96</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
         <v>100</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>101</v>
-      </c>
-      <c r="E29" t="s">
-        <v>102</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>103</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>104</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
       </c>
       <c r="F30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>109</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
       </c>
       <c r="F31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
       <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>114</v>
-      </c>
-      <c r="F32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>115</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>117</v>
-      </c>
-      <c r="E33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>118</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
         <v>119</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>120</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>121</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>123</v>
       </c>
-      <c r="E35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>124</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>126</v>
-      </c>
-      <c r="E36" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>127</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
         <v>128</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>129</v>
       </c>
-      <c r="E37" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>132</v>
       </c>
-      <c r="E38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>133</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>134</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>135</v>
       </c>
-      <c r="E39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>136</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>137</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>138</v>
       </c>
-      <c r="E40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>139</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>140</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>141</v>
       </c>
-      <c r="E41" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>142</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>143</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>144</v>
       </c>
-      <c r="E42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>145</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>146</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>147</v>
-      </c>
-      <c r="E43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>148</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
       <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
         <v>149</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>150</v>
-      </c>
-      <c r="E44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>151</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" t="s">
         <v>152</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>153</v>
-      </c>
-      <c r="E45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>154</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" t="s">
         <v>155</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>156</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>157</v>
       </c>
-      <c r="F46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>158</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>159</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>160</v>
       </c>
-      <c r="E47" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>161</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>162</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>163</v>
       </c>
-      <c r="E48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>164</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>165</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>166</v>
-      </c>
-      <c r="E49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>167</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" t="s">
         <v>168</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>169</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>170</v>
-      </c>
-      <c r="F50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>171</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
         <v>172</v>
       </c>
-      <c r="D51" t="s">
-        <v>173</v>
-      </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>174</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>175</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>176</v>
-      </c>
-      <c r="E52" t="s">
-        <v>177</v>
       </c>
       <c r="F52" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>178</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>179</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>180</v>
-      </c>
-      <c r="E53" t="s">
-        <v>181</v>
       </c>
       <c r="F53" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>182</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>183</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>184</v>
-      </c>
-      <c r="E54" t="s">
-        <v>185</v>
       </c>
       <c r="F54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>186</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>187</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>188</v>
-      </c>
-      <c r="E55" t="s">
-        <v>189</v>
       </c>
       <c r="F55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
         <v>190</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>191</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>192</v>
-      </c>
-      <c r="E56" t="s">
-        <v>193</v>
       </c>
       <c r="F56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>194</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>195</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>196</v>
-      </c>
-      <c r="E57" t="s">
-        <v>197</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>198</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>199</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>200</v>
-      </c>
-      <c r="E58" t="s">
-        <v>201</v>
       </c>
       <c r="F58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
         <v>202</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>203</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>204</v>
-      </c>
-      <c r="E59" t="s">
-        <v>205</v>
       </c>
       <c r="F59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
         <v>206</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>207</v>
       </c>
-      <c r="D60" t="s">
-        <v>208</v>
-      </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
         <v>209</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>210</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>211</v>
-      </c>
-      <c r="E61" t="s">
-        <v>212</v>
       </c>
       <c r="F61" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" t="s">
         <v>214</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>215</v>
-      </c>
-      <c r="E62" t="s">
-        <v>216</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
         <v>217</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>218</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>219</v>
-      </c>
-      <c r="E63" t="s">
-        <v>220</v>
       </c>
       <c r="F63" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>221</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>222</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>223</v>
-      </c>
-      <c r="E64" t="s">
-        <v>224</v>
       </c>
       <c r="F64" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
         <v>225</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>226</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>227</v>
       </c>
-      <c r="E65" t="s">
-        <v>228</v>
-      </c>
       <c r="F65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H30" r:id="rId1" display="https://item.szlcsc.com/15912.html?spm=sc.ct.xh.11.c___sc.hm.hd.c2&amp;c=Q2&amp;lcsc_vid=T1QIVgYEQFdfXlFVT1QNVwFUEgJYUVdQE1JYV1YFEwcxVlNVTlhdUVxXQFFXUTsOAxUeFF5JWAIASQYPGQZABAsLWA%3D%3D" xr:uid="{36F15956-92FF-40E7-8BCF-E25E0DB83B88}"/>
+    <hyperlink ref="H31" r:id="rId2" display="https://item.szlcsc.com/8406197.html?spm=sc.ct.xh.1.c___sc.hm.hd.c2&amp;c=Q2&amp;lcsc_vid=T1QIVgYEQFdfXlFVT1QNVwFUEgJYUVdQE1JYV1YFEwcxVlNVTlhdUVxXQFFXUTsOAxUeFF5JWAIASQYPGQZABAsLWA%3D%3D" xr:uid="{4C31FB99-9028-4D91-8277-A507C7A0296E}"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>